--- a/docs/PinList.xlsx
+++ b/docs/PinList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Horizon\Condor\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\Horizon\condor\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78664A7F-D651-4AFE-992E-53DF6B211564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D32F4CD-F4B6-4983-AA26-7618EAD0F226}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1554,7 +1554,7 @@
     <t>data enable communication with power supply number 5</t>
   </si>
   <si>
-    <t>info from Meir</t>
+    <t>info from lior</t>
   </si>
 </sst>
 </file>
@@ -1977,8 +1977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
